--- a/master_data/model.xlsx
+++ b/master_data/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/PCComponentes/master_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/laptops-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="8_{47CCCB73-DBE5-48F4-A6BF-7A4AC70C8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EF9CE3-EBB2-4681-A0A7-D7BC1C27253D}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{47CCCB73-DBE5-48F4-A6BF-7A4AC70C8FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02625607-90F3-406A-8F4F-BE419A5E36DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51A8B473-06FC-4565-A635-CFFD2061C188}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="137">
   <si>
     <t>MacBook Pro</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>EliteBook</t>
-  </si>
-  <si>
-    <t>ZBook Firefly</t>
   </si>
   <si>
     <t>Surface Pro</t>
@@ -503,10 +500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,11 +799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1FE5C-6EFA-4BD8-9891-A6D398182D5E}">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -844,7 +835,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>250</v>
@@ -876,10 +867,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,15 +883,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
         <v>255</v>
@@ -908,10 +899,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,10 +955,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,18 +971,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,18 +1019,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,47 +1046,47 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,10 +1155,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,34 +1171,34 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,35 +1218,35 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1">
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1">
-        <v>470</v>
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,42 +1259,42 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1478,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1486,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1494,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,23 +1598,23 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1646,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,23 +1654,23 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>106</v>
+      <c r="B107">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>17</v>
+      <c r="B108" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,10 +1707,10 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,18 +1747,18 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,34 +1771,34 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>121</v>
+      <c r="B123">
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>15</v>
+      <c r="B124" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,14 +1903,6 @@
       </c>
       <c r="B137" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
